--- a/excel/Eduprov-Report-01-11-2021.xlsx
+++ b/excel/Eduprov-Report-01-11-2021.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navin\Desktop\web\morning-shift\eduprov\eduprov_source\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37432A7A-0407-433D-9329-811E3D181171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="With Course Name" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="With Admission Guidance Keyword" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Short Form with Admission Guida" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="With Course Name" sheetId="1" r:id="rId1"/>
+    <sheet name="With Admission Guidance Keyword" sheetId="2" r:id="rId2"/>
+    <sheet name="Short Form with Admission Guida" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,28 +27,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="296">
-  <si>
-    <t xml:space="preserve">Course Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commerce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bachelor of commerce professional</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="299">
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>bachelor of commerce professional</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -53,7 +58,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -72,7 +77,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -85,100 +90,100 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-commerce-professional.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Commerce Honours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-commerce-honours.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimize Description, keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Business Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-business-administration.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelors Of Commerce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-commerce.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bachelor of legislative law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/law-course-blogs.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimize Description, keywords and content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master of law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/master-of-law-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Mass Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-in-mass-communication.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Physical Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-physical-education.html</t>
+    <t>https://eduprov.com/bachelor-of-commerce-professional.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Commerce Honours</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-commerce-honours.html</t>
+  </si>
+  <si>
+    <t>Optimize Description, keywords</t>
+  </si>
+  <si>
+    <t>Bachelor of Business Administration</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-business-administration.html</t>
+  </si>
+  <si>
+    <t>Bachelors Of Commerce</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-commerce.html</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>bachelor of legislative law</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/law-course-blogs.html</t>
+  </si>
+  <si>
+    <t>Optimize Description, keywords and content</t>
+  </si>
+  <si>
+    <t>master of law</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/master-of-law-course.html</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>Bachelor of Mass Communication</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-in-mass-communication.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Physical Education</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-physical-education.html</t>
   </si>
   <si>
     <t xml:space="preserve">Bachelor of Social Work </t>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-social-work.html</t>
+    <t>https://eduprov.com/bachelor-of-social-work.html</t>
   </si>
   <si>
     <t xml:space="preserve">Bachelor of Archaeology </t>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-archaelogy.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-arts.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Dance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-dance.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimize Content Description and Keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Arts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/master-of-arts.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA</t>
+    <t>https://eduprov.com/bachelor-of-archaelogy.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-arts.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Dance</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-dance.html</t>
+  </si>
+  <si>
+    <t>Optimize Content Description and Keywords</t>
+  </si>
+  <si>
+    <t>Master of Arts</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/master-of-arts.html</t>
+  </si>
+  <si>
+    <t>MBA</t>
   </si>
   <si>
     <t xml:space="preserve">MBA Facility Management </t>
@@ -191,7 +196,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -201,7 +206,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -220,7 +225,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -233,7 +238,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/facility-management-course.html</t>
+    <t>https://eduprov.com/facility-management-course.html</t>
   </si>
   <si>
     <t xml:space="preserve">MBA Banking and Finance </t>
@@ -246,7 +251,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12</t>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -256,7 +261,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -275,7 +280,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -288,20 +293,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/mba-banking-finance-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Export management</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
+    <t>https://eduprov.com/mba-banking-finance-course.html</t>
+  </si>
+  <si>
+    <t>MBA Export management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -311,7 +316,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -330,7 +335,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -343,53 +348,53 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/export-management-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Finance Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/finance-management.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimize Content</t>
+    <t>https://eduprov.com/export-management-course.html</t>
+  </si>
+  <si>
+    <t>MBA Finance Management</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/finance-management.html</t>
+  </si>
+  <si>
+    <t>Optimize Content</t>
   </si>
   <si>
     <t xml:space="preserve">MBA Healthcare Management </t>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/healthcare-management-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Human Resource Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/human-resource-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Logistics Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/logistics-management-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Organizational Behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/organizational-studies.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA in Retail Management</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">11</t>
+    <t>https://eduprov.com/healthcare-management-course.html</t>
+  </si>
+  <si>
+    <t>MBA Human Resource Management</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/human-resource-course.html</t>
+  </si>
+  <si>
+    <t>MBA Logistics Management</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/logistics-management-course.html</t>
+  </si>
+  <si>
+    <t>MBA Organizational Behavior</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/organizational-studies.html</t>
+  </si>
+  <si>
+    <t>MBA in Retail Management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -399,7 +404,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -418,7 +423,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -431,104 +436,104 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/retail-management-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Fashion Designing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bfd-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Designing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-designing-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Designing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/master-of-designing-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-education-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/master-of-education-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Techinical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-computer-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Computer Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bachelor-of-computer-application.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Computer Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/mca-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science</t>
+    <t>https://eduprov.com/retail-management-course.html</t>
+  </si>
+  <si>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t>Bachelor of Fashion Designing</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bfd-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Designing</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-designing-course.html</t>
+  </si>
+  <si>
+    <t>Master of Designing</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/master-of-designing-course.html</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Bachelor of Education</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-education-course.html</t>
+  </si>
+  <si>
+    <t>Master of Education</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/master-of-education-course.html</t>
+  </si>
+  <si>
+    <t>Techinical</t>
+  </si>
+  <si>
+    <t>B.Sc Computer Science</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-computer-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Computer Application</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bachelor-of-computer-application.html</t>
+  </si>
+  <si>
+    <t>Master of Computer Application</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/mca-course.html</t>
+  </si>
+  <si>
+    <t>Science</t>
   </si>
   <si>
     <t xml:space="preserve">Bachelor of Science in Bioinformatics </t>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-bioinformation-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Science Biotechnology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-biotechnology-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Science In Chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-chemistry-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Dairy Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-dairy-technology-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Food Processing &amp; Technology</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">9</t>
+    <t>https://eduprov.com/bsc-bioinformation-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Science Biotechnology</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-biotechnology-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Science In Chemistry</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-chemistry-course.html</t>
+  </si>
+  <si>
+    <t>B.Sc Dairy Technology</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-dairy-technology-course.html</t>
+  </si>
+  <si>
+    <t>B.Sc Food Processing &amp; Technology</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>9</t>
     </r>
     <r>
       <rPr>
@@ -538,7 +543,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -557,7 +562,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -570,32 +575,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-food-processing-and-technology-course.html.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Forensic Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-forensic-science-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSc Forestry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-forestry-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Horticulture</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
+    <t>https://eduprov.com/bsc-food-processing-and-technology-course.html.html</t>
+  </si>
+  <si>
+    <t>B.Sc Forensic Science</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-forensic-science-course.html</t>
+  </si>
+  <si>
+    <t>BSc Forestry</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-forestry-course.html</t>
+  </si>
+  <si>
+    <t>B.Sc Horticulture</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -605,7 +610,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -624,7 +629,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -637,200 +642,200 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-horticulture-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Mathematics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-mathematics-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Zoology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-zoology-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-agriculture-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-in-biology.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Botany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-in-botany.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-in-physics.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Pure Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-in-pure-science.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Food Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-in-food-science.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Microbiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-in-microbiology.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-statistics.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Photography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsc-photography.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/master-of-science.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Ayurvedic Medicine and Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bams-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Dental Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bds-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Homoeopathic Medical and surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bhms-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Medicine and Bachelor of Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/mbbs-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Unani Medicine &amp; Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bums-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Siddha Medicine &amp; Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bsms-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Physiotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/bpt-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor of Medicine / M.D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/doctor-of-medicine-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor of Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/d-pharama-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Dental Surgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/mds-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Medicine in Unani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/md-unani-course.html</t>
+    <t>https://eduprov.com/bsc-horticulture-course.html</t>
+  </si>
+  <si>
+    <t>B.Sc Mathematics</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-mathematics-course.html</t>
+  </si>
+  <si>
+    <t>B.Sc Zoology</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-zoology-course.html</t>
+  </si>
+  <si>
+    <t>B.Sc Agriculture</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-agriculture-course.html</t>
+  </si>
+  <si>
+    <t>B.Sc Biology</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-in-biology.html</t>
+  </si>
+  <si>
+    <t>B.Sc Botany</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-in-botany.html</t>
+  </si>
+  <si>
+    <t>B.Sc Physics</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-in-physics.html</t>
+  </si>
+  <si>
+    <t>B.Sc Pure Science</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-in-pure-science.html</t>
+  </si>
+  <si>
+    <t>B.Sc Food Science</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-in-food-science.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Science</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc.html</t>
+  </si>
+  <si>
+    <t>B.Sc Microbiology</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-in-microbiology.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Statistics</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-statistics.html</t>
+  </si>
+  <si>
+    <t>B.Sc Photography</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsc-photography.html</t>
+  </si>
+  <si>
+    <t>Master of Science</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/master-of-science.html</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Bachelor of Ayurvedic Medicine and Surgery</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bams-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Dental Surgery</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bds-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Homoeopathic Medical and surgery</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bhms-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Medicine and Bachelor of Surgery</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/mbbs-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Unani Medicine &amp; Surgery</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bums-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Siddha Medicine &amp; Surgery</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bsms-course.html</t>
+  </si>
+  <si>
+    <t>Bachelor of Physiotherapy</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/bpt-course.html</t>
+  </si>
+  <si>
+    <t>Doctor of Medicine / M.D</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/doctor-of-medicine-course.html</t>
+  </si>
+  <si>
+    <t>Doctor of Pharmacy</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/d-pharama-course.html</t>
+  </si>
+  <si>
+    <t>Master of Dental Surgery</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/mds-course.html</t>
+  </si>
+  <si>
+    <t>Master of Medicine in Unani</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/md-unani-course.html</t>
   </si>
   <si>
     <t xml:space="preserve">Doctorate of Medicine In Anesthesia </t>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/md-anaesthesia-course.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diploma in Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/diploma-in-engineering.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech Aerospace Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/btech-in-aerospace.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech Automobile Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/btech-in-automobile.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech in Construction Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/btech-in-construction.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech Dairy Technology</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
+    <t>https://eduprov.com/md-anaesthesia-course.html</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Diploma in Engineering</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/diploma-in-engineering.html</t>
+  </si>
+  <si>
+    <t>B.Tech Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/btech-in-aerospace.html</t>
+  </si>
+  <si>
+    <t>B.Tech Automobile Engineering</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/btech-in-automobile.html</t>
+  </si>
+  <si>
+    <t>B.Tech in Construction Engineering</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/btech-in-construction.html</t>
+  </si>
+  <si>
+    <t>B.Tech Dairy Technology</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -840,7 +845,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -859,7 +864,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -872,20 +877,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/btech-in-dairy-technology.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech in Electronics and Electrical Engineering</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
+    <t>https://eduprov.com/btech-in-dairy-technology.html</t>
+  </si>
+  <si>
+    <t>B.Tech in Electronics and Electrical Engineering</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -895,7 +900,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -914,7 +919,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -927,29 +932,29 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://eduprov.com/btech-in-eee.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech Electronics and Communication Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eduprov.com/btech-in-ece.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bachelor of commerce professional Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>https://eduprov.com/btech-in-eee.html</t>
+  </si>
+  <si>
+    <t>B.Tech Electronics and Communication Engineering</t>
+  </si>
+  <si>
+    <t>https://eduprov.com/btech-in-ece.html</t>
+  </si>
+  <si>
+    <t>Course List</t>
+  </si>
+  <si>
+    <t>bachelor of commerce professional Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -959,7 +964,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -978,7 +983,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -991,17 +996,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor of Commerce Honours Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>Bachelor of Commerce Honours Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1011,7 +1016,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1030,7 +1035,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1043,35 +1048,35 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor of Business Administration Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelors Of Commerce Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bachelor of legislative law Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Law Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Mass Communication Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Physical Education Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Social Work Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>Bachelor of Business Administration Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelors Of Commerce Admission Guidance</t>
+  </si>
+  <si>
+    <t>bachelor of legislative law Admission Guidance</t>
+  </si>
+  <si>
+    <t>Master of Law Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Mass Communication Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Physical Education Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Social Work Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1081,7 +1086,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1105,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1113,32 +1118,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor of Archaeology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Arts Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Dance Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Arts Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Facility Management Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Banking and Finance Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>Bachelor of Archaeology Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Arts Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Dance Admission Guidance</t>
+  </si>
+  <si>
+    <t>Master of Arts Admission Guidance</t>
+  </si>
+  <si>
+    <t>MBA Facility Management Admission Guidance</t>
+  </si>
+  <si>
+    <t>MBA Banking and Finance Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1148,7 +1153,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1161,20 +1166,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MBA Export management Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Finance Management Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>MBA Export management Admission Guidance</t>
+  </si>
+  <si>
+    <t>MBA Finance Management Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1184,7 +1189,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1203,7 +1208,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1216,20 +1221,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MBA Healthcare Management Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Human Resource Management Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>MBA Healthcare Management Admission Guidance</t>
+  </si>
+  <si>
+    <t>MBA Human Resource Management Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1239,7 +1244,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1258,7 +1263,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1271,20 +1276,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MBA Logistics Management Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA Organizational Behavior Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
+    <t>MBA Logistics Management Admission Guidance</t>
+  </si>
+  <si>
+    <t>MBA Organizational Behavior Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1294,7 +1299,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -1313,7 +1318,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1326,26 +1331,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MBA in Retail Management Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Fashion Designing Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Designing Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Designing Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>MBA in Retail Management Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Fashion Designing Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Designing Admission Guidance</t>
+  </si>
+  <si>
+    <t>Master of Designing Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1355,7 +1360,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1374,7 +1379,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -1387,32 +1392,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor of Education Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Education Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Computer Science Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Computer Application Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Computer Application Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>Bachelor of Education Admission Guidance</t>
+  </si>
+  <si>
+    <t>Master of Education Admission Guidance</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>B.Sc Computer Science Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Computer Application Admission Guidance</t>
+  </si>
+  <si>
+    <t>Master of Computer Application Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1422,7 +1427,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1441,7 +1446,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1454,83 +1459,83 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor of Science in Bioinformatics Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Science Biotechnology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Science In Chemistry Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech Dairy Technology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Statistics Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Ayurvedic Medicine and Surgery Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Dental Surgery Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Homoeopathic Medical and surgery Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Medicine and Bachelor of Surgery Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Unani Medicine &amp; Surgery Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Siddha Medicine &amp; Surgery Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Physiotherapy Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor of Medicine / M.D Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor of Pharmacy Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Dental Surgery Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Medicine in Unani Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctorate of Medicine In Anesthesia Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diploma in Engineering Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech Automobile Engineering Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech in Electronics and Electrical Engineering Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech Electronics and Communication Engineering Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Com professionals Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>Bachelor of Science in Bioinformatics Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Science Biotechnology Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Science In Chemistry Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Tech Dairy Technology Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Statistics Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Ayurvedic Medicine and Surgery Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Dental Surgery Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Homoeopathic Medical and surgery Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Medicine and Bachelor of Surgery Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Unani Medicine &amp; Surgery Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Siddha Medicine &amp; Surgery Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Physiotherapy Admission Guidance</t>
+  </si>
+  <si>
+    <t>Doctor of Medicine / M.D Admission Guidance</t>
+  </si>
+  <si>
+    <t>Doctor of Pharmacy Admission Guidance</t>
+  </si>
+  <si>
+    <t>Master of Dental Surgery Admission Guidance</t>
+  </si>
+  <si>
+    <t>Master of Medicine in Unani Admission Guidance</t>
+  </si>
+  <si>
+    <t>Doctorate of Medicine In Anesthesia Admission Guidance</t>
+  </si>
+  <si>
+    <t>Diploma in Engineering Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Tech Automobile Engineering Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Tech in Electronics and Electrical Engineering Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Tech Electronics and Communication Engineering Admission Guidance</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>B.Com professionals Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1545,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1553,20 +1558,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">B.com Hons Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBA  Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
+    <t>B.com Hons Admission Guidance</t>
+  </si>
+  <si>
+    <t>BBA  Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1576,7 +1581,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1595,7 +1600,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1608,23 +1613,23 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">B.com Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLB Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLM Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
+    <t>B.com Admission Guidance</t>
+  </si>
+  <si>
+    <t>LLB Admission Guidance</t>
+  </si>
+  <si>
+    <t>LLM Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1634,7 +1639,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -1653,7 +1658,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1666,23 +1671,23 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">BMM Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPhEd Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSW Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
+    <t>BMM Admission Guidance</t>
+  </si>
+  <si>
+    <t>BPhEd Admission Guidance</t>
+  </si>
+  <si>
+    <t>BSW Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1692,7 +1697,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -1711,7 +1716,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1724,38 +1729,38 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">BA Archaeology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.A  Dance Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFD Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDes Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDes Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Ed Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
+    <t>BA Archaeology Admission Guidance</t>
+  </si>
+  <si>
+    <t>BA Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.A  Dance Admission Guidance</t>
+  </si>
+  <si>
+    <t>MA Admission Guidance</t>
+  </si>
+  <si>
+    <t>BFD Admission Guidance</t>
+  </si>
+  <si>
+    <t>BDes Admission Guidance</t>
+  </si>
+  <si>
+    <t>MDes Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Ed Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1765,7 +1770,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">st</t>
+      <t>st</t>
     </r>
     <r>
       <rPr>
@@ -1784,7 +1789,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1797,17 +1802,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MEd Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
+    <t>MEd Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1817,7 +1822,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -1830,20 +1835,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">B.Sc CS Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCA Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
+    <t>B.Sc CS Admission Guidance</t>
+  </si>
+  <si>
+    <t>BCA Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1853,7 +1858,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">rd</t>
+      <t>rd</t>
     </r>
     <r>
       <rPr>
@@ -1872,7 +1877,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1885,17 +1890,17 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MCA Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
+    <t>MCA Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1905,7 +1910,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -1924,7 +1929,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1937,23 +1942,23 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">B.Sc Bioinformatics Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Biotechnology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Chemistry Admission Guidance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
+    <t>B.Sc Bioinformatics Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Biotechnology Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Chemistry Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -1963,7 +1968,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -1982,7 +1987,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd</t>
+      <t>nd</t>
     </r>
     <r>
       <rPr>
@@ -1995,116 +2000,179 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">B.Sc Dairy Technology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Food Processing &amp; Technology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Forensic Science Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSc Forestry Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Horticulture Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Mathematics Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Zoology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Agriculture Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Biology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Botany Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Physics Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Pure Science Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Food Science Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Science Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Microbiology Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Statistics Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc Photography Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Science Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAMS Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDS Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHMS Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBBS Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUMS Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSMS Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPT Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.D Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharm.D Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDS Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD Unani Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD Anesthesia Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech Aerospace Engineering Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech in Construction Engineering Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech in EEE Admission Guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech ECE Admission Guidance</t>
+    <t>B.Sc Dairy Technology Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Food Processing &amp; Technology Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Forensic Science Admission Guidance</t>
+  </si>
+  <si>
+    <t>BSc Forestry Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Horticulture Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Mathematics Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Zoology Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Agriculture Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Biology Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Botany Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Physics Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Pure Science Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Food Science Admission Guidance</t>
+  </si>
+  <si>
+    <t>Bachelor of Science Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Microbiology Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Statistics Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Sc Photography Admission Guidance</t>
+  </si>
+  <si>
+    <t>Master of Science Admission Guidance</t>
+  </si>
+  <si>
+    <t>BAMS Admission Guidance</t>
+  </si>
+  <si>
+    <t>BDS Admission Guidance</t>
+  </si>
+  <si>
+    <t>BHMS Admission Guidance</t>
+  </si>
+  <si>
+    <t>MBBS Admission Guidance</t>
+  </si>
+  <si>
+    <t>BUMS Admission Guidance</t>
+  </si>
+  <si>
+    <t>BSMS Admission Guidance</t>
+  </si>
+  <si>
+    <t>BPT Admission Guidance</t>
+  </si>
+  <si>
+    <t>M.D Admission Guidance</t>
+  </si>
+  <si>
+    <t>Pharm.D Admission Guidance</t>
+  </si>
+  <si>
+    <t>MDS Admission Guidance</t>
+  </si>
+  <si>
+    <t>MD Unani Admission Guidance</t>
+  </si>
+  <si>
+    <t>MD Anesthesia Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Tech Aerospace Engineering Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Tech in Construction Engineering Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Tech in EEE Admission Guidance</t>
+  </si>
+  <si>
+    <t>B.Tech ECE Admission Guidance</t>
+  </si>
+  <si>
+    <r>
+      <t>The meta description is too long: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF494949"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF494949"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> pixels from max. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF494949"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF494949"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> pixels.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> Some tags are too long. With </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF494949"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>165</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2112,22 +2180,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2147,6 +2200,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2157,7 +2225,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2165,101 +2233,363 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D79" activeCellId="0" sqref="D79"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.14"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2271,7 +2601,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2299,7 +2629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2313,21 +2643,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2355,17 +2685,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2379,7 +2709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2393,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2407,7 +2737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -2421,7 +2751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -2435,7 +2765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -2449,7 +2779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -2463,17 +2793,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -2484,7 +2814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
@@ -2495,7 +2825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -2506,7 +2836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -2516,11 +2846,11 @@
       <c r="D29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -2530,11 +2860,11 @@
       <c r="D30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -2544,11 +2874,11 @@
       <c r="D31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -2558,11 +2888,11 @@
       <c r="D32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
@@ -2572,11 +2902,11 @@
       <c r="D33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -2587,17 +2917,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -2607,11 +2937,11 @@
       <c r="D37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
@@ -2621,11 +2951,11 @@
       <c r="D38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>65</v>
       </c>
@@ -2635,21 +2965,21 @@
       <c r="D39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>68</v>
       </c>
@@ -2659,11 +2989,11 @@
       <c r="D42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -2671,23 +3001,23 @@
       <c r="D43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>73</v>
       </c>
@@ -2697,11 +3027,11 @@
       <c r="D47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>75</v>
       </c>
@@ -2711,702 +3041,701 @@
       <c r="D48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>89</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>96</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>139</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>147</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>152</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="0" t="s">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
         <v>153</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>154</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="0" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
         <v>155</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="0" t="s">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
         <v>157</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>159</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>160</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>162</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>163</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="0" t="s">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
         <v>165</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://eduprov.com/bachelor-of-commerce-professional.html"/>
-    <hyperlink ref="D7" r:id="rId2" display="https://eduprov.com/bachelor-of-commerce-honours.html"/>
-    <hyperlink ref="D8" r:id="rId3" display="https://eduprov.com/bachelor-of-business-administration.html"/>
-    <hyperlink ref="D9" r:id="rId4" display="https://eduprov.com/bachelor-of-commerce.html"/>
-    <hyperlink ref="D13" r:id="rId5" display="https://eduprov.com/law-course-blogs.html"/>
-    <hyperlink ref="D14" r:id="rId6" display="https://eduprov.com/master-of-law-course.html"/>
-    <hyperlink ref="D17" r:id="rId7" display="https://eduprov.com/bachelor-in-mass-communication.html"/>
-    <hyperlink ref="D18" r:id="rId8" display="https://eduprov.com/bachelor-of-physical-education.html"/>
-    <hyperlink ref="D19" r:id="rId9" display="https://eduprov.com/bachelor-of-social-work.html"/>
-    <hyperlink ref="D20" r:id="rId10" display="https://eduprov.com/bachelor-of-archaelogy.html"/>
-    <hyperlink ref="D21" r:id="rId11" display="https://eduprov.com/bachelor-of-arts.html"/>
-    <hyperlink ref="D22" r:id="rId12" display="https://eduprov.com/bachelor-of-dance.html"/>
-    <hyperlink ref="D23" r:id="rId13" display="https://eduprov.com/master-of-arts.html"/>
-    <hyperlink ref="A26" r:id="rId14" display="MBA Facility Management "/>
-    <hyperlink ref="D26" r:id="rId15" display="https://eduprov.com/facility-management-course.html"/>
-    <hyperlink ref="A27" r:id="rId16" display="MBA Banking and Finance "/>
-    <hyperlink ref="D27" r:id="rId17" display="https://eduprov.com/mba-banking-finance-course.html"/>
-    <hyperlink ref="D28" r:id="rId18" display="https://eduprov.com/export-management-course.html"/>
-    <hyperlink ref="D29" r:id="rId19" display="https://eduprov.com/finance-management.html"/>
-    <hyperlink ref="D30" r:id="rId20" display="https://eduprov.com/healthcare-management-course.html"/>
-    <hyperlink ref="D31" r:id="rId21" display="https://eduprov.com/human-resource-course.html"/>
-    <hyperlink ref="D32" r:id="rId22" display="https://eduprov.com/logistics-management-course.html"/>
-    <hyperlink ref="D33" r:id="rId23" display="https://eduprov.com/organizational-studies.html"/>
-    <hyperlink ref="D34" r:id="rId24" display="https://eduprov.com/retail-management-course.html"/>
-    <hyperlink ref="D37" r:id="rId25" display="https://eduprov.com/bfd-course.html"/>
-    <hyperlink ref="D38" r:id="rId26" display="https://eduprov.com/bachelor-of-designing-course.html"/>
-    <hyperlink ref="D39" r:id="rId27" display="https://eduprov.com/master-of-designing-course.html"/>
-    <hyperlink ref="D42" r:id="rId28" display="https://eduprov.com/bachelor-of-education-course.html"/>
-    <hyperlink ref="D43" r:id="rId29" display="https://eduprov.com/master-of-education-course.html"/>
-    <hyperlink ref="D47" r:id="rId30" display="https://eduprov.com/bsc-computer-course.html"/>
-    <hyperlink ref="D48" r:id="rId31" display="https://eduprov.com/bachelor-of-computer-application.html"/>
-    <hyperlink ref="D49" r:id="rId32" display="https://eduprov.com/mca-course.html"/>
-    <hyperlink ref="D53" r:id="rId33" display="https://eduprov.com/bsc-bioinformation-course.html"/>
-    <hyperlink ref="D54" r:id="rId34" display="https://eduprov.com/bsc-biotechnology-course.html"/>
-    <hyperlink ref="D55" r:id="rId35" display="https://eduprov.com/bsc-chemistry-course.html"/>
-    <hyperlink ref="D56" r:id="rId36" display="https://eduprov.com/bsc-dairy-technology-course.html"/>
-    <hyperlink ref="D57" r:id="rId37" display="https://eduprov.com/bsc-food-processing-and-technology-course.html.html"/>
-    <hyperlink ref="D58" r:id="rId38" display="https://eduprov.com/bsc-forensic-science-course.html"/>
-    <hyperlink ref="D59" r:id="rId39" display="https://eduprov.com/bsc-forestry-course.html"/>
-    <hyperlink ref="D60" r:id="rId40" display="https://eduprov.com/bsc-horticulture-course.html"/>
-    <hyperlink ref="D61" r:id="rId41" display="https://eduprov.com/bsc-mathematics-course.html"/>
-    <hyperlink ref="D62" r:id="rId42" display="https://eduprov.com/bsc-zoology-course.html"/>
-    <hyperlink ref="D63" r:id="rId43" display="https://eduprov.com/bsc-agriculture-course.html"/>
-    <hyperlink ref="D64" r:id="rId44" display="https://eduprov.com/bsc-in-biology.html"/>
-    <hyperlink ref="D65" r:id="rId45" display="https://eduprov.com/bsc-in-botany.html"/>
-    <hyperlink ref="D66" r:id="rId46" display="https://eduprov.com/bsc-in-physics.html"/>
-    <hyperlink ref="D67" r:id="rId47" display="https://eduprov.com/bsc-in-pure-science.html"/>
-    <hyperlink ref="D68" r:id="rId48" display="https://eduprov.com/bsc-in-food-science.html"/>
-    <hyperlink ref="D69" r:id="rId49" display="https://eduprov.com/bsc.html"/>
-    <hyperlink ref="D70" r:id="rId50" display="https://eduprov.com/bsc-in-microbiology.html"/>
-    <hyperlink ref="D71" r:id="rId51" display="https://eduprov.com/bsc-statistics.html"/>
-    <hyperlink ref="D72" r:id="rId52" display="https://eduprov.com/bsc-photography.html"/>
-    <hyperlink ref="D73" r:id="rId53" display="https://eduprov.com/bsc-photography.html"/>
-    <hyperlink ref="D74" r:id="rId54" display="https://eduprov.com/master-of-science.html"/>
-    <hyperlink ref="D75" r:id="rId55" display="https://eduprov.com/master-of-science.html"/>
-    <hyperlink ref="D79" r:id="rId56" display="https://eduprov.com/bams-course.html"/>
-    <hyperlink ref="D80" r:id="rId57" display="https://eduprov.com/bds-course.html"/>
-    <hyperlink ref="D81" r:id="rId58" display="https://eduprov.com/bhms-course.html"/>
-    <hyperlink ref="D82" r:id="rId59" display="https://eduprov.com/mbbs-course.html"/>
-    <hyperlink ref="D83" r:id="rId60" display="https://eduprov.com/bums-course.html"/>
-    <hyperlink ref="D84" r:id="rId61" display="https://eduprov.com/bsms-course.html"/>
-    <hyperlink ref="D85" r:id="rId62" display="https://eduprov.com/bpt-course.html"/>
-    <hyperlink ref="D86" r:id="rId63" display="https://eduprov.com/doctor-of-medicine-course.html"/>
-    <hyperlink ref="D87" r:id="rId64" display="https://eduprov.com/d-pharama-course.html"/>
-    <hyperlink ref="D88" r:id="rId65" display="https://eduprov.com/mds-course.html"/>
-    <hyperlink ref="D89" r:id="rId66" display="https://eduprov.com/md-unani-course.html"/>
-    <hyperlink ref="D90" r:id="rId67" display="https://eduprov.com/md-anaesthesia-course.html"/>
-    <hyperlink ref="D94" r:id="rId68" display="https://eduprov.com/diploma-in-engineering.html"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D27" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D28" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D29" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D31" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D32" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D33" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D34" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D47" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D53" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D54" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D55" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D56" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D57" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D58" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D59" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D60" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D61" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D62" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D63" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D64" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D65" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D66" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D67" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D70" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D71" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D72" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D73" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D74" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D75" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D79" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D80" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D81" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D94" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3414,42 +3743,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.14"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3459,11 +3787,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3473,11 +3801,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3487,11 +3815,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3500,17 +3828,26 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3520,11 +3857,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -3534,17 +3871,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>175</v>
       </c>
@@ -3558,7 +3895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
@@ -3572,7 +3909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>177</v>
       </c>
@@ -3586,7 +3923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>179</v>
       </c>
@@ -3600,7 +3937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>180</v>
       </c>
@@ -3614,7 +3951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>181</v>
       </c>
@@ -3628,7 +3965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>182</v>
       </c>
@@ -3642,17 +3979,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>183</v>
       </c>
@@ -3666,7 +4003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>184</v>
       </c>
@@ -3680,7 +4017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>186</v>
       </c>
@@ -3694,7 +4031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>187</v>
       </c>
@@ -3708,7 +4045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>189</v>
       </c>
@@ -3718,11 +4055,11 @@
       <c r="D32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>190</v>
       </c>
@@ -3736,7 +4073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>192</v>
       </c>
@@ -3746,11 +4083,11 @@
       <c r="D34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>193</v>
       </c>
@@ -3764,7 +4101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>195</v>
       </c>
@@ -3778,17 +4115,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>196</v>
       </c>
@@ -3802,7 +4139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>197</v>
       </c>
@@ -3812,11 +4149,11 @@
       <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>198</v>
       </c>
@@ -3830,17 +4167,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>200</v>
       </c>
@@ -3854,7 +4191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>201</v>
       </c>
@@ -3868,13 +4205,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>203</v>
       </c>
@@ -3884,11 +4221,11 @@
       <c r="D53" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>204</v>
       </c>
@@ -3898,440 +4235,439 @@
       <c r="D54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>206</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>207</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>210</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>168</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>170</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>213</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>185</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>214</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>215</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>170</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>216</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>217</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>218</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>168</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>219</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>220</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>221</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>222</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>223</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>156</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>225</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>210</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>168</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="E101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>227</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>199</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://eduprov.com/bachelor-of-commerce-professional.html"/>
-    <hyperlink ref="D6" r:id="rId2" display="https://eduprov.com/bachelor-of-commerce-honours.html"/>
-    <hyperlink ref="D7" r:id="rId3" display="https://eduprov.com/bachelor-of-business-administration.html"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://eduprov.com/bachelor-of-commerce.html"/>
-    <hyperlink ref="D12" r:id="rId5" display="https://eduprov.com/law-course-blogs.html"/>
-    <hyperlink ref="D13" r:id="rId6" display="https://eduprov.com/master-of-law-course.html"/>
-    <hyperlink ref="D17" r:id="rId7" display="https://eduprov.com/bachelor-in-mass-communication.html"/>
-    <hyperlink ref="D18" r:id="rId8" display="https://eduprov.com/bachelor-of-physical-education.html"/>
-    <hyperlink ref="D19" r:id="rId9" display="https://eduprov.com/bachelor-of-social-work.html"/>
-    <hyperlink ref="D20" r:id="rId10" display="https://eduprov.com/bachelor-of-archaelogy.html"/>
-    <hyperlink ref="D21" r:id="rId11" display="https://eduprov.com/bachelor-of-arts.html"/>
-    <hyperlink ref="D22" r:id="rId12" display="https://eduprov.com/bachelor-of-dance.html"/>
-    <hyperlink ref="D23" r:id="rId13" display="https://eduprov.com/master-of-arts.html"/>
-    <hyperlink ref="D28" r:id="rId14" display="https://eduprov.com/facility-management-course.html"/>
-    <hyperlink ref="A29" r:id="rId15" display="MBA Banking and Finance Admission Guidance"/>
-    <hyperlink ref="D29" r:id="rId16" display="https://eduprov.com/mba-banking-finance-course.html"/>
-    <hyperlink ref="D30" r:id="rId17" display="https://eduprov.com/export-management-course.html"/>
-    <hyperlink ref="D31" r:id="rId18" display="https://eduprov.com/finance-management.html"/>
-    <hyperlink ref="D32" r:id="rId19" display="https://eduprov.com/healthcare-management-course.html"/>
-    <hyperlink ref="D33" r:id="rId20" display="https://eduprov.com/human-resource-course.html"/>
-    <hyperlink ref="D34" r:id="rId21" display="https://eduprov.com/logistics-management-course.html"/>
-    <hyperlink ref="D35" r:id="rId22" display="https://eduprov.com/organizational-studies.html"/>
-    <hyperlink ref="D36" r:id="rId23" display="https://eduprov.com/retail-management-course.html"/>
-    <hyperlink ref="D41" r:id="rId24" display="https://eduprov.com/bfd-course.html"/>
-    <hyperlink ref="D42" r:id="rId25" display="https://eduprov.com/bachelor-of-designing-course.html"/>
-    <hyperlink ref="D43" r:id="rId26" display="https://eduprov.com/master-of-designing-course.html"/>
-    <hyperlink ref="D48" r:id="rId27" display="https://eduprov.com/bachelor-of-education-course.html"/>
-    <hyperlink ref="D49" r:id="rId28" display="https://eduprov.com/master-of-education-course.html"/>
-    <hyperlink ref="D53" r:id="rId29" display="https://eduprov.com/bsc-computer-course.html"/>
-    <hyperlink ref="D54" r:id="rId30" display="https://eduprov.com/bachelor-of-computer-application.html"/>
-    <hyperlink ref="D55" r:id="rId31" display="https://eduprov.com/mca-course.html"/>
-    <hyperlink ref="D59" r:id="rId32" display="https://eduprov.com/bsc-bioinformation-course.html"/>
-    <hyperlink ref="D60" r:id="rId33" display="https://eduprov.com/bsc-biotechnology-course.html"/>
-    <hyperlink ref="D61" r:id="rId34" display="https://eduprov.com/bsc-chemistry-course.html"/>
-    <hyperlink ref="D62" r:id="rId35" display="https://eduprov.com/btech-in-dairy-technology.html"/>
-    <hyperlink ref="D77" r:id="rId36" display="https://eduprov.com/bsc-statistics.html"/>
-    <hyperlink ref="D81" r:id="rId37" display="https://eduprov.com/bams-course.html"/>
-    <hyperlink ref="D82" r:id="rId38" display="https://eduprov.com/bds-course.html"/>
-    <hyperlink ref="D83" r:id="rId39" display="https://eduprov.com/bhms-course.html"/>
-    <hyperlink ref="D84" r:id="rId40" display="https://eduprov.com/mbbs-course.html"/>
-    <hyperlink ref="D85" r:id="rId41" display="https://eduprov.com/bums-course.html"/>
-    <hyperlink ref="D86" r:id="rId42" display="https://eduprov.com/bsms-course.html"/>
-    <hyperlink ref="D87" r:id="rId43" display="https://eduprov.com/bpt-course.html"/>
-    <hyperlink ref="D88" r:id="rId44" display="https://eduprov.com/doctor-of-medicine-course.html"/>
-    <hyperlink ref="D89" r:id="rId45" display="https://eduprov.com/d-pharama-course.html"/>
-    <hyperlink ref="D90" r:id="rId46" display="https://eduprov.com/mds-course.html"/>
-    <hyperlink ref="D91" r:id="rId47" display="https://eduprov.com/md-unani-course.html"/>
-    <hyperlink ref="D92" r:id="rId48" display="https://eduprov.com/md-anaesthesia-course.html"/>
-    <hyperlink ref="D96" r:id="rId49" display="https://eduprov.com/diploma-in-engineering.html"/>
-    <hyperlink ref="D97" r:id="rId50" display="https://eduprov.com/btech-in-aerospace.html"/>
-    <hyperlink ref="D98" r:id="rId51" display="https://eduprov.com/btech-in-construction.html"/>
-    <hyperlink ref="D99" r:id="rId52" display="https://eduprov.com/btech-in-automobile.html"/>
-    <hyperlink ref="D100" r:id="rId53" display="https://eduprov.com/btech-in-dairy-technology.html"/>
-    <hyperlink ref="D101" r:id="rId54" display="https://eduprov.com/btech-in-eee.html"/>
-    <hyperlink ref="D102" r:id="rId55" display="https://eduprov.com/btech-in-ece.html"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D28" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A29" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D29" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D30" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D31" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D32" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D33" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D34" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D35" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D36" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D41" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D42" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D43" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D48" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D49" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D53" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D54" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D55" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D59" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D60" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D61" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D62" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D77" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D81" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D82" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D83" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D84" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D85" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D86" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D87" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D88" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D89" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D90" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D91" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="D92" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D96" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D97" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D98" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D99" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D100" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="D101" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D102" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId56"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4339,25 +4675,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D90" activeCellId="0" sqref="D90"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.14"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>228</v>
       </c>
@@ -4365,13 +4698,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>229</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4380,12 +4713,12 @@
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>231</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4394,11 +4727,11 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>232</v>
       </c>
@@ -4408,15 +4741,15 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -4426,12 +4759,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>235</v>
       </c>
@@ -4445,7 +4778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>236</v>
       </c>
@@ -4457,16 +4790,16 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4476,11 +4809,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -4490,11 +4823,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>241</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -4504,7 +4837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>242</v>
       </c>
@@ -4518,7 +4851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>243</v>
       </c>
@@ -4532,7 +4865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>244</v>
       </c>
@@ -4546,7 +4879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>245</v>
       </c>
@@ -4560,12 +4893,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>246</v>
       </c>
@@ -4575,11 +4908,11 @@
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>247</v>
       </c>
@@ -4589,11 +4922,11 @@
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>248</v>
       </c>
@@ -4603,16 +4936,16 @@
       <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>249</v>
       </c>
@@ -4622,11 +4955,11 @@
       <c r="D33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>251</v>
       </c>
@@ -4636,16 +4969,16 @@
       <c r="D34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>253</v>
       </c>
@@ -4655,11 +4988,11 @@
       <c r="D38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>254</v>
       </c>
@@ -4669,667 +5002,666 @@
       <c r="D39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>256</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>257</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>258</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>259</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>261</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>262</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>263</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>264</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>265</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>199</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>267</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>269</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>271</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>185</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>274</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>275</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>276</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>277</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>278</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>280</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>281</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>188</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>282</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>284</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>285</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>286</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>206</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>287</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>288</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>289</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>290</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>291</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>224</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>292</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>225</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>293</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>168</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>294</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>170</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>295</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>170</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://eduprov.com/bachelor-of-commerce-professional.html"/>
-    <hyperlink ref="D6" r:id="rId2" display="https://eduprov.com/bachelor-of-commerce-honours.html"/>
-    <hyperlink ref="D7" r:id="rId3" display="https://eduprov.com/bachelor-of-business-administration.html"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://eduprov.com/bachelor-of-commerce.html"/>
-    <hyperlink ref="D12" r:id="rId5" display="https://eduprov.com/law-course-blogs.html"/>
-    <hyperlink ref="D13" r:id="rId6" display="https://eduprov.com/master-of-law-course.html"/>
-    <hyperlink ref="D17" r:id="rId7" display="https://eduprov.com/bachelor-in-mass-communication.html"/>
-    <hyperlink ref="D18" r:id="rId8" display="https://eduprov.com/bachelor-of-physical-education.html"/>
-    <hyperlink ref="D19" r:id="rId9" display="https://eduprov.com/bachelor-of-social-work.html"/>
-    <hyperlink ref="D20" r:id="rId10" display="https://eduprov.com/bachelor-of-archaelogy.html"/>
-    <hyperlink ref="D21" r:id="rId11" display="https://eduprov.com/bachelor-of-arts.html"/>
-    <hyperlink ref="D22" r:id="rId12" display="https://eduprov.com/bachelor-of-dance.html"/>
-    <hyperlink ref="D23" r:id="rId13" display="https://eduprov.com/master-of-arts.html"/>
-    <hyperlink ref="D27" r:id="rId14" display="https://eduprov.com/bfd-course.html"/>
-    <hyperlink ref="D28" r:id="rId15" display="https://eduprov.com/bachelor-of-designing-course.html"/>
-    <hyperlink ref="D29" r:id="rId16" display="https://eduprov.com/master-of-designing-course.html"/>
-    <hyperlink ref="D33" r:id="rId17" display="https://eduprov.com/bachelor-of-education-course.html"/>
-    <hyperlink ref="D34" r:id="rId18" display="https://eduprov.com/master-of-education-course.html"/>
-    <hyperlink ref="D38" r:id="rId19" display="https://eduprov.com/bsc-computer-course.html"/>
-    <hyperlink ref="D39" r:id="rId20" display="https://eduprov.com/bachelor-of-computer-application.html"/>
-    <hyperlink ref="D40" r:id="rId21" display="https://eduprov.com/mca-course.html"/>
-    <hyperlink ref="D44" r:id="rId22" display="https://eduprov.com/bsc-bioinformation-course.html"/>
-    <hyperlink ref="D45" r:id="rId23" display="https://eduprov.com/bsc-biotechnology-course.html"/>
-    <hyperlink ref="D46" r:id="rId24" display="https://eduprov.com/bsc-chemistry-course.html"/>
-    <hyperlink ref="D47" r:id="rId25" display="https://eduprov.com/bsc-dairy-technology-course.html"/>
-    <hyperlink ref="D48" r:id="rId26" display="https://eduprov.com/bsc-food-processing-and-technology-course.html.html"/>
-    <hyperlink ref="D49" r:id="rId27" display="https://eduprov.com/bsc-forensic-science-course.html"/>
-    <hyperlink ref="D50" r:id="rId28" display="https://eduprov.com/bsc-forestry-course.html"/>
-    <hyperlink ref="D51" r:id="rId29" display="https://eduprov.com/bsc-horticulture-course.html"/>
-    <hyperlink ref="D52" r:id="rId30" display="https://eduprov.com/bsc-mathematics-course.html"/>
-    <hyperlink ref="D53" r:id="rId31" display="https://eduprov.com/bsc-zoology-course.html"/>
-    <hyperlink ref="D54" r:id="rId32" display="https://eduprov.com/bsc-agriculture-course.html"/>
-    <hyperlink ref="D55" r:id="rId33" display="https://eduprov.com/bsc-in-biology.html"/>
-    <hyperlink ref="D56" r:id="rId34" display="https://eduprov.com/bsc-in-botany.html"/>
-    <hyperlink ref="D57" r:id="rId35" display="https://eduprov.com/bsc-in-physics.html"/>
-    <hyperlink ref="D58" r:id="rId36" display="https://eduprov.com/bsc-in-pure-science.html"/>
-    <hyperlink ref="D59" r:id="rId37" display="https://eduprov.com/bsc-in-food-science.html"/>
-    <hyperlink ref="D60" r:id="rId38" display="https://eduprov.com/bsc.html"/>
-    <hyperlink ref="D61" r:id="rId39" display="https://eduprov.com/bsc-in-microbiology.html"/>
-    <hyperlink ref="D62" r:id="rId40" display="https://eduprov.com/bsc-statistics.html"/>
-    <hyperlink ref="D63" r:id="rId41" display="https://eduprov.com/bsc-photography.html"/>
-    <hyperlink ref="D64" r:id="rId42" display="https://eduprov.com/master-of-science.html"/>
-    <hyperlink ref="D69" r:id="rId43" display="https://eduprov.com/bams-course.html"/>
-    <hyperlink ref="D70" r:id="rId44" display="https://eduprov.com/bds-course.html"/>
-    <hyperlink ref="D71" r:id="rId45" display="https://eduprov.com/bhms-course.html"/>
-    <hyperlink ref="D72" r:id="rId46" display="https://eduprov.com/mbbs-course.html"/>
-    <hyperlink ref="D73" r:id="rId47" display="https://eduprov.com/bums-course.html"/>
-    <hyperlink ref="D74" r:id="rId48" display="https://eduprov.com/bsms-course.html"/>
-    <hyperlink ref="D75" r:id="rId49" display="https://eduprov.com/bpt-course.html"/>
-    <hyperlink ref="D76" r:id="rId50" display="https://eduprov.com/doctor-of-medicine-course.html"/>
-    <hyperlink ref="D77" r:id="rId51" display="https://eduprov.com/d-pharama-course.html"/>
-    <hyperlink ref="D78" r:id="rId52" display="https://eduprov.com/mds-course.html"/>
-    <hyperlink ref="D79" r:id="rId53" display="https://eduprov.com/md-unani-course.html"/>
-    <hyperlink ref="D80" r:id="rId54" display="https://eduprov.com/md-anaesthesia-course.html"/>
-    <hyperlink ref="D84" r:id="rId55" display="https://eduprov.com/diploma-in-engineering.html"/>
-    <hyperlink ref="D85" r:id="rId56" display="https://eduprov.com/btech-in-aerospace.html"/>
-    <hyperlink ref="D86" r:id="rId57" display="https://eduprov.com/btech-in-automobile.html"/>
-    <hyperlink ref="D87" r:id="rId58" display="https://eduprov.com/btech-in-construction.html"/>
-    <hyperlink ref="D88" r:id="rId59" display="https://eduprov.com/btech-in-dairy-technology.html"/>
-    <hyperlink ref="D89" r:id="rId60" display="https://eduprov.com/btech-in-eee.html"/>
-    <hyperlink ref="D90" r:id="rId61" display="https://eduprov.com/btech-in-ece.html"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D27" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="D28" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="D29" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="D33" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="D34" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="D38" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="D39" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="D40" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="D44" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="D45" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="D46" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="D47" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="D48" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="D49" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="D50" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="D51" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="D52" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="D53" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="D54" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="D55" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="D56" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="D57" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="D58" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="D59" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="D60" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="D61" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="D62" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="D63" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="D64" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="D69" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="D70" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="D71" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="D72" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="D73" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="D74" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="D75" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="D76" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="D77" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="D78" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="D79" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="D80" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="D84" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="D85" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="D86" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="D87" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="D88" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="D89" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="D90" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
